--- a/src/test/resources/ExcelData.xlsx
+++ b/src/test/resources/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyani\code\DsAlgo_BDD\new\DsAlgo_ProjectCompass_BDD\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C22275-2210-47F3-9C29-00ADF53F5D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4FB3E3-A17A-4BF1-BA9F-19028A370CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -70,13 +70,7 @@
     <t>hello</t>
   </si>
   <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>Scenario</t>
+    <t>passwordconfirm</t>
   </si>
 </sst>
 </file>
@@ -484,29 +478,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Y997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="6" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
+    <row r="1" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -529,27 +521,20 @@
       <c r="W1" s="13"/>
       <c r="X1" s="13"/>
       <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1544,23 +1529,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1584,14 +1569,13 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>9</v>
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -1617,15 +1601,14 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="8"/>
+      <c r="Y2" s="8"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>5</v>
@@ -1641,45 +1624,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1701,29 +1676,28 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="8"/>
+      <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:25" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
+    <row r="11" spans="1:25" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
